--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T10:53:52+10:00</t>
+    <t>2024-05-15T12:58:39+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="612">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T12:58:39+10:00</t>
+    <t>2024-05-15T15:51:17+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -701,6 +701,10 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -753,6 +757,9 @@
   </si>
   <si>
     <t>Coded Prescribed Medication</t>
+  </si>
+  <si>
+    <t>http://fhir-arf-register.nardhc.org/ValueSet/arf-medication-code-vs</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.id</t>
@@ -4531,16 +4538,16 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4569,23 +4576,23 @@
         <v>175</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>217</v>
@@ -4603,43 +4610,43 @@
         <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>217</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
@@ -4651,13 +4658,13 @@
         <v>171</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4683,13 +4690,11 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -4722,27 +4727,27 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4765,13 +4770,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4822,7 +4827,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4843,7 +4848,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4854,10 +4859,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4883,10 +4888,10 @@
         <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>149</v>
@@ -4930,7 +4935,7 @@
         <v>135</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
@@ -4939,7 +4944,7 @@
         <v>136</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4960,7 +4965,7 @@
         <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4971,10 +4976,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4997,19 +5002,19 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -5046,7 +5051,7 @@
         <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -5056,7 +5061,7 @@
         <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5077,24 +5082,24 @@
         <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -5116,19 +5121,19 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -5157,7 +5162,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5175,7 +5180,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5196,21 +5201,21 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5233,13 +5238,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5290,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5311,7 +5316,7 @@
         <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5322,10 +5327,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5351,10 +5356,10 @@
         <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>149</v>
@@ -5398,7 +5403,7 @@
         <v>135</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>78</v>
@@ -5407,7 +5412,7 @@
         <v>136</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -5428,7 +5433,7 @@
         <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5439,10 +5444,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5468,23 +5473,23 @@
         <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>78</v>
@@ -5526,7 +5531,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5547,21 +5552,21 @@
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5584,16 +5589,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5643,7 +5648,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5664,21 +5669,21 @@
         <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5704,14 +5709,14 @@
         <v>107</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5760,7 +5765,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5781,21 +5786,21 @@
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5818,17 +5823,17 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5877,7 +5882,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -5898,21 +5903,21 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5938,16 +5943,16 @@
         <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5996,7 +6001,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -6017,24 +6022,24 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>78</v>
@@ -6056,19 +6061,19 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6097,7 +6102,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -6115,7 +6120,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6136,21 +6141,21 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6173,13 +6178,13 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6230,7 +6235,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6251,7 +6256,7 @@
         <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -6262,10 +6267,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6291,10 +6296,10 @@
         <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>149</v>
@@ -6338,7 +6343,7 @@
         <v>135</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>78</v>
@@ -6347,7 +6352,7 @@
         <v>136</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6368,7 +6373,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6379,10 +6384,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6408,23 +6413,23 @@
         <v>101</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>78</v>
@@ -6466,7 +6471,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6487,21 +6492,21 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6524,16 +6529,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6583,7 +6588,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6604,21 +6609,21 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6644,14 +6649,14 @@
         <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
@@ -6700,7 +6705,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6721,21 +6726,21 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6758,17 +6763,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6817,7 +6822,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6838,21 +6843,21 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6878,16 +6883,16 @@
         <v>207</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6936,7 +6941,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6957,24 +6962,24 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>78</v>
@@ -6996,19 +7001,19 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7037,7 +7042,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -7055,7 +7060,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7076,21 +7081,21 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7113,13 +7118,13 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7170,7 +7175,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7191,7 +7196,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7202,10 +7207,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7276,7 +7281,7 @@
         <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
@@ -7285,7 +7290,7 @@
         <v>136</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7317,13 +7322,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>78</v>
@@ -7345,13 +7350,13 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7402,7 +7407,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7434,10 +7439,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7463,23 +7468,23 @@
         <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>78</v>
@@ -7521,7 +7526,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7542,21 +7547,21 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7579,16 +7584,16 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7638,7 +7643,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7659,21 +7664,21 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7699,14 +7704,14 @@
         <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7755,7 +7760,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7776,21 +7781,21 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7813,17 +7818,17 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7872,7 +7877,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7893,21 +7898,21 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7933,16 +7938,16 @@
         <v>207</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7991,7 +7996,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -8012,24 +8017,24 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>78</v>
@@ -8051,19 +8056,19 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8092,7 +8097,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>78</v>
@@ -8110,7 +8115,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8131,21 +8136,21 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8168,13 +8173,13 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8225,7 +8230,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8246,7 +8251,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8257,10 +8262,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8286,10 +8291,10 @@
         <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>149</v>
@@ -8333,7 +8338,7 @@
         <v>135</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>78</v>
@@ -8342,7 +8347,7 @@
         <v>136</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8363,7 +8368,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8374,10 +8379,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8403,23 +8408,23 @@
         <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>78</v>
@@ -8461,7 +8466,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8482,21 +8487,21 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8519,16 +8524,16 @@
         <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8578,7 +8583,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8599,21 +8604,21 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8639,14 +8644,14 @@
         <v>107</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8695,7 +8700,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8716,21 +8721,21 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8753,17 +8758,17 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8812,7 +8817,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8833,21 +8838,21 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8873,16 +8878,16 @@
         <v>207</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8931,7 +8936,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8952,21 +8957,21 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8989,19 +8994,19 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -9050,7 +9055,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9071,24 +9076,24 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>217</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>78</v>
@@ -9110,16 +9115,16 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9184,27 +9189,27 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9227,16 +9232,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9286,7 +9291,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>87</v>
@@ -9301,27 +9306,27 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9344,16 +9349,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9403,7 +9408,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9418,27 +9423,27 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9461,13 +9466,13 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9506,7 +9511,7 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
@@ -9516,7 +9521,7 @@
         <v>136</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9531,16 +9536,16 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9548,13 +9553,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>78</v>
@@ -9576,13 +9581,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9633,7 +9638,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9648,16 +9653,16 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9665,13 +9670,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>78</v>
@@ -9693,13 +9698,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9750,7 +9755,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9765,16 +9770,16 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9782,10 +9787,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9808,13 +9813,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9865,7 +9870,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9880,27 +9885,27 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9923,13 +9928,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9980,7 +9985,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9995,16 +10000,16 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -10012,10 +10017,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10038,13 +10043,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10095,7 +10100,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10110,16 +10115,16 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -10127,10 +10132,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10156,13 +10161,13 @@
         <v>171</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10191,10 +10196,10 @@
         <v>175</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -10212,7 +10217,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10227,13 +10232,13 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10244,10 +10249,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10270,13 +10275,13 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10327,7 +10332,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10348,10 +10353,10 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10359,10 +10364,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10388,13 +10393,13 @@
         <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10424,7 +10429,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10442,7 +10447,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10457,27 +10462,27 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10500,16 +10505,16 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10559,7 +10564,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10574,16 +10579,16 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>78</v>
@@ -10591,10 +10596,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10617,13 +10622,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10674,7 +10679,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10689,13 +10694,13 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10706,10 +10711,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10735,10 +10740,10 @@
         <v>101</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10789,7 +10794,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10810,7 +10815,7 @@
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10821,10 +10826,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10847,13 +10852,13 @@
         <v>88</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10904,7 +10909,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10919,13 +10924,13 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10936,10 +10941,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10962,17 +10967,17 @@
         <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>78</v>
@@ -11021,7 +11026,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -11036,13 +11041,13 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11053,10 +11058,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11082,13 +11087,13 @@
         <v>171</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11117,10 +11122,10 @@
         <v>175</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>78</v>
@@ -11138,7 +11143,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -11159,7 +11164,7 @@
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11170,10 +11175,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11196,13 +11201,13 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11253,7 +11258,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
@@ -11268,13 +11273,13 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11285,10 +11290,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11311,13 +11316,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11368,7 +11373,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -11383,13 +11388,13 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11400,10 +11405,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11426,16 +11431,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11485,7 +11490,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11506,7 +11511,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11517,10 +11522,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11543,13 +11548,13 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11600,7 +11605,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11618,10 +11623,10 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11632,10 +11637,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11658,13 +11663,13 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11715,7 +11720,7 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11736,7 +11741,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11747,10 +11752,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11776,10 +11781,10 @@
         <v>132</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>149</v>
@@ -11832,7 +11837,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11853,7 +11858,7 @@
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11864,14 +11869,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11893,10 +11898,10 @@
         <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>149</v>
@@ -11951,7 +11956,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11983,10 +11988,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12009,16 +12014,16 @@
         <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12068,7 +12073,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12089,7 +12094,7 @@
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12100,10 +12105,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12126,13 +12131,13 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12183,7 +12188,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12204,7 +12209,7 @@
         <v>78</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -12215,10 +12220,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12244,10 +12249,10 @@
         <v>132</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>149</v>
@@ -12300,7 +12305,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12321,7 +12326,7 @@
         <v>78</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>
@@ -12332,14 +12337,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12361,10 +12366,10 @@
         <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>149</v>
@@ -12419,7 +12424,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
@@ -12451,10 +12456,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12477,13 +12482,13 @@
         <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12534,7 +12539,7 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
@@ -12555,7 +12560,7 @@
         <v>78</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>78</v>
@@ -12566,10 +12571,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12592,13 +12597,13 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12649,7 +12654,7 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12670,7 +12675,7 @@
         <v>78</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>78</v>
@@ -12681,10 +12686,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12707,13 +12712,13 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12764,7 +12769,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12785,7 +12790,7 @@
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12796,10 +12801,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12822,19 +12827,19 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12883,7 +12888,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
@@ -12901,10 +12906,10 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>78</v>
@@ -12915,10 +12920,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12941,16 +12946,16 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13000,7 +13005,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -13018,24 +13023,24 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13058,13 +13063,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13115,7 +13120,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -13133,24 +13138,24 @@
         <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13173,16 +13178,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13232,7 +13237,7 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
@@ -13250,10 +13255,10 @@
         <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>78</v>
@@ -13264,10 +13269,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13290,13 +13295,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13347,7 +13352,7 @@
         <v>78</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>76</v>
@@ -13368,10 +13373,10 @@
         <v>78</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>78</v>
@@ -13379,10 +13384,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13405,13 +13410,13 @@
         <v>78</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13462,7 +13467,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>76</v>
@@ -13480,10 +13485,10 @@
         <v>78</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>78</v>
@@ -13494,10 +13499,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13520,13 +13525,13 @@
         <v>78</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13577,7 +13582,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>76</v>
@@ -13598,7 +13603,7 @@
         <v>78</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>78</v>
@@ -13609,10 +13614,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13638,10 +13643,10 @@
         <v>132</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>149</v>
@@ -13694,7 +13699,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>76</v>
@@ -13715,7 +13720,7 @@
         <v>78</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>78</v>
@@ -13726,14 +13731,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13755,10 +13760,10 @@
         <v>132</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>149</v>
@@ -13813,7 +13818,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
@@ -13845,10 +13850,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13871,16 +13876,16 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13909,10 +13914,10 @@
         <v>175</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>78</v>
@@ -13930,7 +13935,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>87</v>
@@ -13948,24 +13953,24 @@
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13991,10 +13996,10 @@
         <v>171</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14025,7 +14030,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>78</v>
@@ -14043,7 +14048,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>76</v>
@@ -14061,24 +14066,24 @@
         <v>78</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14101,13 +14106,13 @@
         <v>78</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14158,7 +14163,7 @@
         <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>76</v>
@@ -14173,13 +14178,13 @@
         <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>78</v>
@@ -14190,14 +14195,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14216,16 +14221,16 @@
         <v>78</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14275,7 +14280,7 @@
         <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
@@ -14296,7 +14301,7 @@
         <v>78</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>78</v>
@@ -14307,10 +14312,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14333,16 +14338,16 @@
         <v>78</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14392,7 +14397,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
@@ -14407,13 +14412,13 @@
         <v>99</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T15:51:17+10:00</t>
+    <t>2024-05-16T11:47:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:47:37+10:00</t>
+    <t>2024-05-20T09:59:48+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T09:59:48+10:00</t>
+    <t>2024-05-20T12:15:26+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-20T17:01:27+10:00</t>
+    <t>2024-05-21T11:55:01+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -707,10 +707,6 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -4552,16 +4548,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4590,23 +4586,23 @@
         <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z20" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>219</v>
@@ -4624,30 +4620,30 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>219</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4672,13 +4668,13 @@
         <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4708,7 +4704,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4741,27 +4737,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4784,13 +4780,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4841,28 +4837,28 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4873,10 +4869,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4902,10 +4898,10 @@
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>151</v>
@@ -4949,7 +4945,7 @@
         <v>137</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4954,7 @@
         <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4979,7 +4975,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4990,10 +4986,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5016,19 +5012,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5065,7 +5061,7 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -5075,7 +5071,7 @@
         <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5096,24 +5092,24 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
@@ -5135,19 +5131,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="O25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5176,7 +5172,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5194,7 +5190,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5215,21 +5211,21 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5252,13 +5248,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5309,28 +5305,28 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5341,10 +5337,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5370,10 +5366,10 @@
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>151</v>
@@ -5417,7 +5413,7 @@
         <v>137</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
@@ -5426,7 +5422,7 @@
         <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5447,7 +5443,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5458,10 +5454,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5487,65 +5483,65 @@
         <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5566,21 +5562,21 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5603,16 +5599,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5662,7 +5658,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5683,21 +5679,21 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5723,14 +5719,14 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5779,7 +5775,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5800,21 +5796,21 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5837,17 +5833,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5896,7 +5892,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5917,21 +5913,21 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5957,16 +5953,16 @@
         <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6015,7 +6011,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6036,24 +6032,24 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6075,19 +6071,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>316</v>
-      </c>
       <c r="O33" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6116,7 +6112,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6134,7 +6130,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6155,21 +6151,21 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6192,13 +6188,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6249,28 +6245,28 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6281,10 +6277,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6310,10 +6306,10 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>151</v>
@@ -6357,7 +6353,7 @@
         <v>137</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
@@ -6366,7 +6362,7 @@
         <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6387,7 +6383,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6398,10 +6394,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6427,23 +6423,23 @@
         <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6485,7 +6481,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6506,21 +6502,21 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6543,16 +6539,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6602,7 +6598,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6623,21 +6619,21 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6663,14 +6659,14 @@
         <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6719,7 +6715,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6740,21 +6736,21 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6777,17 +6773,17 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6836,7 +6832,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6857,21 +6853,21 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6897,16 +6893,16 @@
         <v>209</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6955,7 +6951,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6976,24 +6972,24 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C41" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -7015,19 +7011,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7056,7 +7052,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7074,7 +7070,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7095,21 +7091,21 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7132,13 +7128,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7189,28 +7185,28 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7221,10 +7217,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7295,7 +7291,7 @@
         <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
@@ -7304,7 +7300,7 @@
         <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7336,13 +7332,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
@@ -7364,13 +7360,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7421,7 +7417,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7453,10 +7449,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7482,23 +7478,23 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7540,7 +7536,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7561,21 +7557,21 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7598,16 +7594,16 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7657,7 +7653,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7678,21 +7674,21 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7718,14 +7714,14 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7774,7 +7770,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7795,21 +7791,21 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7832,17 +7828,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7891,7 +7887,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7912,21 +7908,21 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7952,16 +7948,16 @@
         <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8010,7 +8006,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8031,24 +8027,24 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C50" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>80</v>
@@ -8070,19 +8066,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8111,7 +8107,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8129,7 +8125,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8150,21 +8146,21 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>260</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8187,13 +8183,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8244,28 +8240,28 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8276,10 +8272,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8305,10 +8301,10 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>151</v>
@@ -8352,7 +8348,7 @@
         <v>137</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
@@ -8361,7 +8357,7 @@
         <v>138</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8382,7 +8378,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8393,10 +8389,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8422,23 +8418,23 @@
         <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>80</v>
@@ -8480,7 +8476,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8501,21 +8497,21 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8538,16 +8534,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8597,7 +8593,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8618,21 +8614,21 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8658,14 +8654,14 @@
         <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8714,7 +8710,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8735,21 +8731,21 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8772,17 +8768,17 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8831,7 +8827,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8852,21 +8848,21 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8892,16 +8888,16 @@
         <v>209</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8950,7 +8946,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8971,21 +8967,21 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9008,19 +9004,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9069,7 +9065,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9090,24 +9086,24 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>363</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>219</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9129,16 +9125,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>367</v>
-      </c>
       <c r="M59" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9203,27 +9199,27 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL59" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AL59" t="s" s="2">
+      <c r="AM59" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9246,16 +9242,16 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9305,7 +9301,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -9320,27 +9316,27 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>377</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9363,16 +9359,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9422,7 +9418,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9437,27 +9433,27 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9480,13 +9476,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9525,7 +9521,7 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
@@ -9535,7 +9531,7 @@
         <v>138</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9550,16 +9546,16 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9567,13 +9563,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C63" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -9595,13 +9591,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9652,7 +9648,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9667,16 +9663,16 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AN63" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9684,13 +9680,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
@@ -9712,13 +9708,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9769,7 +9765,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9784,16 +9780,16 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AL64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AN64" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9801,10 +9797,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9827,13 +9823,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9884,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9899,27 +9895,27 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>410</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9942,13 +9938,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9999,7 +9995,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10014,16 +10010,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10031,10 +10027,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10057,13 +10053,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10114,7 +10110,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10129,16 +10125,16 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM67" t="s" s="2">
+      <c r="AN67" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10146,10 +10142,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10175,13 +10171,13 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10210,11 +10206,11 @@
         <v>177</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10246,13 +10242,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10263,10 +10259,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10289,13 +10285,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10346,7 +10342,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10367,10 +10363,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10378,10 +10374,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10407,13 +10403,13 @@
         <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10443,7 +10439,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10461,7 +10457,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10476,27 +10472,27 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>447</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10519,16 +10515,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10578,7 +10574,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10593,16 +10589,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10610,10 +10606,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10636,13 +10632,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10693,7 +10689,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10708,13 +10704,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10725,10 +10721,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10754,10 +10750,10 @@
         <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10808,7 +10804,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10829,7 +10825,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10840,10 +10836,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10866,13 +10862,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10923,7 +10919,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10938,13 +10934,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10955,10 +10951,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10981,17 +10977,17 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11040,7 +11036,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11055,13 +11051,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11072,10 +11068,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11101,13 +11097,13 @@
         <v>173</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11136,11 +11132,11 @@
         <v>177</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z76" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11157,7 +11153,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11178,7 +11174,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11189,10 +11185,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11215,13 +11211,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11272,7 +11268,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11287,13 +11283,13 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11304,10 +11300,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11330,13 +11326,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11387,7 +11383,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11402,13 +11398,13 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11419,10 +11415,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11445,16 +11441,16 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11504,7 +11500,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11525,7 +11521,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11536,10 +11532,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11562,13 +11558,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11619,7 +11615,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11637,10 +11633,10 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11651,10 +11647,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11677,13 +11673,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11734,28 +11730,28 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11766,10 +11762,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11795,10 +11791,10 @@
         <v>134</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>151</v>
@@ -11851,7 +11847,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11872,7 +11868,7 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -11883,14 +11879,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11912,10 +11908,10 @@
         <v>134</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>151</v>
@@ -11970,7 +11966,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12002,10 +11998,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12028,16 +12024,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12087,7 +12083,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12108,7 +12104,7 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12119,10 +12115,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12145,13 +12141,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12202,28 +12198,28 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12234,10 +12230,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12263,10 +12259,10 @@
         <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>151</v>
@@ -12319,7 +12315,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12340,7 +12336,7 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12351,14 +12347,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12380,10 +12376,10 @@
         <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>151</v>
@@ -12438,7 +12434,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12470,10 +12466,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12496,13 +12492,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12553,7 +12549,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12574,7 +12570,7 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12585,10 +12581,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12611,13 +12607,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12668,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12689,7 +12685,7 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12700,10 +12696,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12726,13 +12722,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12783,7 +12779,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12804,7 +12800,7 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12815,10 +12811,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12841,19 +12837,19 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12902,7 +12898,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12920,10 +12916,10 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AM91" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12934,10 +12930,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12960,16 +12956,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13019,7 +13015,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13037,24 +13033,24 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO92" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13077,13 +13073,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13134,7 +13130,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13152,24 +13148,24 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO93" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>558</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13192,16 +13188,16 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>562</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13251,7 +13247,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13269,10 +13265,10 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -13283,10 +13279,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13309,13 +13305,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13366,7 +13362,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13387,10 +13383,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13398,10 +13394,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13424,13 +13420,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>572</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13481,7 +13477,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13499,10 +13495,10 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM96" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13513,10 +13509,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13539,13 +13535,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13596,28 +13592,28 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13628,10 +13624,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13657,10 +13653,10 @@
         <v>134</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>151</v>
@@ -13713,7 +13709,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13734,7 +13730,7 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13745,14 +13741,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13774,10 +13770,10 @@
         <v>134</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>151</v>
@@ -13832,7 +13828,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13864,10 +13860,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13890,16 +13886,16 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L100" t="s" s="2">
+      <c r="M100" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13928,11 +13924,11 @@
         <v>177</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
       </c>
@@ -13949,7 +13945,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>89</v>
@@ -13967,24 +13963,24 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO100" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>586</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14010,10 +14006,10 @@
         <v>173</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14044,7 +14040,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -14062,7 +14058,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14080,24 +14076,24 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="AM101" t="s" s="2">
+      <c r="AN101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO101" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>593</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14120,13 +14116,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14177,7 +14173,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14192,13 +14188,13 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>80</v>
@@ -14209,14 +14205,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14235,16 +14231,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L103" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="L103" t="s" s="2">
+      <c r="M103" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14294,7 +14290,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14315,7 +14311,7 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14326,10 +14322,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14352,16 +14348,16 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14411,7 +14407,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14426,13 +14422,13 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM104" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="616">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T11:55:01+10:00</t>
+    <t>2024-05-21T16:48:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/au-medicationrequest</t>
+    <t>http://hl7.org.au/fhir/core/StructureDefinition/au-core-medicationrequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -631,7 +631,7 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
   </si>
   <si>
-    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
@@ -707,6 +707,10 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -1156,7 +1160,7 @@
     <t>medicationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-medication)
 </t>
   </si>
   <si>
@@ -1199,7 +1203,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-encounter)
 </t>
   </si>
   <si>
@@ -1286,6 +1290,14 @@
     <t>The date (and perhaps time) when the prescription was initially written or authored on.</t>
   </si>
   <si>
+    <t xml:space="preserve">au-core-medreq-03
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+au-core-medreq-03:Date shall be at least to day {toString().length() &gt;= 10}</t>
+  </si>
+  <si>
     <t>Request.authoredOn</t>
   </si>
   <si>
@@ -1304,7 +1316,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner|http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitionerrole|http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization|http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient|http://hl7.org.au/fhir/core/StructureDefinition/au-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2267,7 +2279,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="148.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2281,7 +2293,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="156.890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="94.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="74.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3958,7 +3970,7 @@
         <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>90</v>
@@ -4075,7 +4087,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -4119,11 +4131,9 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y16" t="s" s="2">
         <v>196</v>
       </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
         <v>197</v>
       </c>
@@ -4539,7 +4549,7 @@
         <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
@@ -4548,16 +4558,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4586,23 +4596,23 @@
         <v>177</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>219</v>
@@ -4620,30 +4630,30 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>219</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>80</v>
@@ -4668,13 +4678,13 @@
         <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4704,7 +4714,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4737,27 +4747,27 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4780,13 +4790,13 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4837,7 +4847,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4858,7 +4868,7 @@
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>80</v>
@@ -4869,10 +4879,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4898,10 +4908,10 @@
         <v>134</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>151</v>
@@ -4945,7 +4955,7 @@
         <v>137</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
@@ -4954,7 +4964,7 @@
         <v>138</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4975,7 +4985,7 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4986,10 +4996,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5012,19 +5022,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5061,7 +5071,7 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
@@ -5071,7 +5081,7 @@
         <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5092,24 +5102,24 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>80</v>
@@ -5122,7 +5132,7 @@
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -5131,19 +5141,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -5172,7 +5182,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5190,7 +5200,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5211,21 +5221,21 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5248,13 +5258,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5305,7 +5315,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5326,7 +5336,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5337,10 +5347,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5366,10 +5376,10 @@
         <v>134</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
         <v>151</v>
@@ -5413,7 +5423,7 @@
         <v>137</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
@@ -5422,7 +5432,7 @@
         <v>138</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5443,7 +5453,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5454,10 +5464,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5483,23 +5493,23 @@
         <v>103</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5541,7 +5551,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5562,21 +5572,21 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5599,16 +5609,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5658,7 +5668,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5679,21 +5689,21 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5719,14 +5729,14 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5775,7 +5785,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5796,21 +5806,21 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5833,17 +5843,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5892,7 +5902,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5913,21 +5923,21 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5953,16 +5963,16 @@
         <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6011,7 +6021,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6032,24 +6042,24 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6071,19 +6081,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6112,7 +6122,7 @@
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6130,7 +6140,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6151,21 +6161,21 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6188,13 +6198,13 @@
         <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6245,7 +6255,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6266,7 +6276,7 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
@@ -6277,10 +6287,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6306,10 +6316,10 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>151</v>
@@ -6353,7 +6363,7 @@
         <v>137</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
@@ -6362,7 +6372,7 @@
         <v>138</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6383,7 +6393,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6394,10 +6404,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6423,23 +6433,23 @@
         <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6481,7 +6491,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6502,21 +6512,21 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6539,16 +6549,16 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6598,7 +6608,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6619,21 +6629,21 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6659,14 +6669,14 @@
         <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6715,7 +6725,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6736,21 +6746,21 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6773,17 +6783,17 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6832,7 +6842,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6853,21 +6863,21 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6893,16 +6903,16 @@
         <v>209</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6951,7 +6961,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6972,24 +6982,24 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
@@ -7002,7 +7012,7 @@
         <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -7011,19 +7021,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7052,7 +7062,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7070,7 +7080,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7091,21 +7101,21 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7128,13 +7138,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7185,7 +7195,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7206,7 +7216,7 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7217,10 +7227,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7291,7 +7301,7 @@
         <v>137</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
@@ -7300,7 +7310,7 @@
         <v>138</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7332,13 +7342,13 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
@@ -7360,13 +7370,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7417,7 +7427,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7449,10 +7459,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7478,23 +7488,23 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7536,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7557,21 +7567,21 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7594,16 +7604,16 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7653,7 +7663,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7674,21 +7684,21 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7714,14 +7724,14 @@
         <v>109</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7770,7 +7780,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7791,21 +7801,21 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7828,17 +7838,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7887,7 +7897,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7908,21 +7918,21 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7948,16 +7958,16 @@
         <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8006,7 +8016,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8027,24 +8037,24 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>80</v>
@@ -8066,19 +8076,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8107,7 +8117,7 @@
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8125,7 +8135,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8146,21 +8156,21 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8183,13 +8193,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8240,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8261,7 +8271,7 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
@@ -8272,10 +8282,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8301,10 +8311,10 @@
         <v>134</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>151</v>
@@ -8348,7 +8358,7 @@
         <v>137</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
@@ -8357,7 +8367,7 @@
         <v>138</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8378,7 +8388,7 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>80</v>
@@ -8389,10 +8399,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8418,23 +8428,23 @@
         <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>80</v>
@@ -8476,7 +8486,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8497,21 +8507,21 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8534,16 +8544,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8593,7 +8603,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8614,21 +8624,21 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8654,14 +8664,14 @@
         <v>109</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8710,7 +8720,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8731,21 +8741,21 @@
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8768,17 +8778,17 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8827,7 +8837,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8848,21 +8858,21 @@
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8888,16 +8898,16 @@
         <v>209</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8946,7 +8956,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8967,21 +8977,21 @@
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9004,19 +9014,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9065,7 +9075,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9086,24 +9096,24 @@
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>219</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9125,16 +9135,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9199,27 +9209,27 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9233,7 +9243,7 @@
         <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -9242,16 +9252,16 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9301,7 +9311,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>89</v>
@@ -9316,27 +9326,27 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9350,7 +9360,7 @@
         <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9359,16 +9369,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9418,7 +9428,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9433,27 +9443,27 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9476,13 +9486,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9521,7 +9531,7 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
@@ -9531,7 +9541,7 @@
         <v>138</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9546,16 +9556,16 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9563,13 +9573,13 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>80</v>
@@ -9591,13 +9601,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9648,7 +9658,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9663,16 +9673,16 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9680,13 +9690,13 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
@@ -9708,13 +9718,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9765,7 +9775,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9780,16 +9790,16 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9797,10 +9807,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9814,7 +9824,7 @@
         <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9823,13 +9833,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9880,7 +9890,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9889,33 +9899,33 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>407</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9923,13 +9933,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -9938,13 +9948,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9995,7 +10005,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10010,16 +10020,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10027,10 +10037,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10053,13 +10063,13 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10110,7 +10120,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10125,16 +10135,16 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10142,10 +10152,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10171,13 +10181,13 @@
         <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10206,10 +10216,10 @@
         <v>177</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10227,7 +10237,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10242,13 +10252,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10259,10 +10269,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10285,13 +10295,13 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10342,7 +10352,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10363,10 +10373,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10374,10 +10384,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10391,7 +10401,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10403,13 +10413,13 @@
         <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10439,7 +10449,7 @@
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10457,7 +10467,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10472,27 +10482,27 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10515,16 +10525,16 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10574,7 +10584,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10589,16 +10599,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10606,10 +10616,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10632,13 +10642,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10689,7 +10699,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10704,13 +10714,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10721,10 +10731,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10750,10 +10760,10 @@
         <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10804,7 +10814,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10825,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10836,10 +10846,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10862,13 +10872,13 @@
         <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10919,7 +10929,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10934,13 +10944,13 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10951,10 +10961,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10977,17 +10987,17 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -11036,7 +11046,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11051,13 +11061,13 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11068,10 +11078,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11097,13 +11107,13 @@
         <v>173</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11132,10 +11142,10 @@
         <v>177</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11153,7 +11163,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11174,7 +11184,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11185,10 +11195,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11211,13 +11221,13 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11268,7 +11278,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11283,13 +11293,13 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11300,10 +11310,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11317,7 +11327,7 @@
         <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11326,13 +11336,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11383,7 +11393,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11398,13 +11408,13 @@
         <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11415,10 +11425,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11441,16 +11451,16 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11500,7 +11510,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11521,7 +11531,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11532,10 +11542,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11549,7 +11559,7 @@
         <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>80</v>
@@ -11558,13 +11568,13 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11615,7 +11625,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11633,10 +11643,10 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11647,10 +11657,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11673,13 +11683,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11730,7 +11740,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11751,7 +11761,7 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11762,10 +11772,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11791,10 +11801,10 @@
         <v>134</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>151</v>
@@ -11847,7 +11857,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11868,7 +11878,7 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -11879,14 +11889,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11908,10 +11918,10 @@
         <v>134</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>151</v>
@@ -11966,7 +11976,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11998,10 +12008,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12024,16 +12034,16 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12083,7 +12093,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12104,7 +12114,7 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12115,10 +12125,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12141,13 +12151,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12198,7 +12208,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12219,7 +12229,7 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
@@ -12230,10 +12240,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12259,10 +12269,10 @@
         <v>134</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>151</v>
@@ -12315,7 +12325,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12336,7 +12346,7 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
@@ -12347,14 +12357,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12376,10 +12386,10 @@
         <v>134</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>151</v>
@@ -12434,7 +12444,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12466,10 +12476,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12492,13 +12502,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12549,7 +12559,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12570,7 +12580,7 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>80</v>
@@ -12581,10 +12591,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12607,13 +12617,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12664,7 +12674,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12685,7 +12695,7 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12696,10 +12706,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12722,13 +12732,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12779,7 +12789,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12800,7 +12810,7 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12811,10 +12821,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12828,7 +12838,7 @@
         <v>89</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12837,19 +12847,19 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12898,7 +12908,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12916,10 +12926,10 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12930,10 +12940,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12947,7 +12957,7 @@
         <v>89</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
@@ -12956,16 +12966,16 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13015,7 +13025,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13033,24 +13043,24 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13064,7 +13074,7 @@
         <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13073,13 +13083,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13130,7 +13140,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13148,24 +13158,24 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13188,16 +13198,16 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13247,7 +13257,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13265,10 +13275,10 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
@@ -13279,10 +13289,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13305,13 +13315,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13362,7 +13372,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13383,10 +13393,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13394,10 +13404,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13411,7 +13421,7 @@
         <v>89</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>80</v>
@@ -13420,13 +13430,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13477,7 +13487,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13495,10 +13505,10 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13509,10 +13519,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13535,13 +13545,13 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13592,7 +13602,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13613,7 +13623,7 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
@@ -13624,10 +13634,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13653,10 +13663,10 @@
         <v>134</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N98" t="s" s="2">
         <v>151</v>
@@ -13709,7 +13719,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13730,7 +13740,7 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>80</v>
@@ -13741,14 +13751,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -13770,10 +13780,10 @@
         <v>134</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="N99" t="s" s="2">
         <v>151</v>
@@ -13828,7 +13838,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13860,10 +13870,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13877,7 +13887,7 @@
         <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>80</v>
@@ -13886,16 +13896,16 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13924,10 +13934,10 @@
         <v>177</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -13945,7 +13955,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>89</v>
@@ -13963,24 +13973,24 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14006,10 +14016,10 @@
         <v>173</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14040,25 +14050,25 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14076,24 +14086,24 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14116,13 +14126,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14173,7 +14183,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14188,13 +14198,13 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>80</v>
@@ -14205,14 +14215,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -14231,16 +14241,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14290,7 +14300,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14311,7 +14321,7 @@
         <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>80</v>
@@ -14322,10 +14332,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14348,16 +14358,16 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14407,7 +14417,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14422,13 +14432,13 @@
         <v>101</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T16:48:43+10:00</t>
+    <t>2024-05-23T13:27:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1316,7 +1316,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner|http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitionerrole|http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization|http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient|http://hl7.org.au/fhir/core/StructureDefinition/au-core-relatedperson)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner|http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitionerrole|http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization|http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient|RelatedPerson)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:27:21+10:00</t>
+    <t>2024-05-23T13:42:03+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T13:42:03+10:00</t>
+    <t>2024-05-23T14:45:45+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:45:45+10:00</t>
+    <t>2024-05-23T15:19:20+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T15:19:20+10:00</t>
+    <t>2024-05-27T13:31:05+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T13:31:05+10:00</t>
+    <t>2024-05-30T15:43:42+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$97</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3605" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T15:43:42+10:00</t>
+    <t>2024-10-24T17:10:08+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -631,7 +631,7 @@
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
   </si>
   <si>
-    <t>extensible</t>
+    <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
@@ -830,7 +830,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
@@ -843,220 +843,19 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs</t>
-  </si>
-  <si>
-    <t>pbs</t>
-  </si>
-  <si>
-    <t>PBS Item Code</t>
-  </si>
-  <si>
-    <t>PBS code from http://pbs.gov.au/code/item. Use of PBS as a code to refer to a type of medication, this excludes implication of context based on the PBS code. Where context is to be implied or stated PBS code needs to be associated with recording a prescription (MedicationRequest) or dispense record (MedicationDispense).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org.au/ValueSet/pbs-item</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.id</t>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.id</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].coding.id</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.extension</t>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.extension</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x].coding.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.system</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://pbs.gov.au/code/item</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.version</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.display</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x].coding.userSelected</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin</t>
-  </si>
-  <si>
-    <t>gtin</t>
-  </si>
-  <si>
-    <t>Medication Package Global Trade Item Number (GTIN)</t>
-  </si>
-  <si>
-    <t>GTIN value from http://www.gs1.org/gtin.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-GTIN</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.system</t>
-  </si>
-  <si>
-    <t>http://www.gs1.org/gtin</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.version</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.display</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:gtin.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>AMT Medicines</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.extension:medicationClass</t>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.extension:medicationClass</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -1072,12 +871,186 @@
     <t>The type of information covered by the medication coding, e.g. branded product with no strength or form.</t>
   </si>
   <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.version</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.display</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding.userSelected</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x].coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs</t>
+  </si>
+  <si>
+    <t>pbs</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org.au/ValueSet/pbs-item</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.extension:medicationClass</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.system</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.version</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.display</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:pbs.userSelected</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.extension:medicationClass</t>
+  </si>
+  <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.system</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.version</t>
   </si>
   <si>
@@ -1088,42 +1061,6 @@
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:amt.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage</t>
-  </si>
-  <si>
-    <t>mimsPackage</t>
-  </si>
-  <si>
-    <t>MIMS Package</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org.au/ValueSet/mims</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.system</t>
-  </si>
-  <si>
-    <t>http://www.mims.com.au/codes</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.version</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.code</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.display</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]:medicationCodeableConcept.coding:mimsPackage.userSelected</t>
   </si>
   <si>
     <t>MedicationRequest.medication[x]:medicationCodeableConcept.text</t>
@@ -1295,7 +1232,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-au-core-medreq-03:Date shall be at least to day {toString().length() &gt;= 10}</t>
+au-core-medreq-03:Date shall be precise to the day or, if not available, the Data Absent Reason extension shall be present {(toString().length() &gt;= 8) xor extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -1316,7 +1253,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner|http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitionerrole|http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization|http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitioner|http://hl7.org.au/fhir/core/StructureDefinition/au-core-practitionerrole|http://hl7.org.au/fhir/core/StructureDefinition/au-core-organization|http://hl7.org.au/fhir/core/StructureDefinition/au-core-patient|http://hl7.org.au/fhir/StructureDefinition/au-relatedperson)
 </t>
   </si>
   <si>
@@ -1430,7 +1367,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/core/StructureDefinition/au-core-condition|Observation)
 </t>
   </si>
   <si>
@@ -2260,7 +2197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO104"/>
+  <dimension ref="A1:AO97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2293,7 +2230,7 @@
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="94.203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="156.890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="74.21875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -4087,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>80</v>
@@ -4131,9 +4068,11 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
         <v>197</v>
       </c>
@@ -5116,11 +5055,9 @@
         <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C25" t="s" s="2">
         <v>262</v>
       </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5129,32 +5066,28 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5178,11 +5111,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5200,19 +5135,19 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5221,21 +5156,21 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5246,7 +5181,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5258,13 +5193,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5303,31 +5238,31 @@
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5336,7 +5271,7 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -5347,21 +5282,23 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5373,17 +5310,15 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>134</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5420,16 +5355,16 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>249</v>
@@ -5453,7 +5388,7 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -5475,7 +5410,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5509,49 +5444,49 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5572,21 +5507,21 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5612,13 +5547,13 @@
         <v>239</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5668,7 +5603,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5689,21 +5624,21 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5729,14 +5664,14 @@
         <v>109</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5785,7 +5720,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5806,21 +5741,21 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5846,14 +5781,14 @@
         <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5902,7 +5837,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5923,21 +5858,21 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5963,16 +5898,16 @@
         <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6021,7 +5956,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6042,24 +5977,24 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>251</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6072,7 +6007,7 @@
         <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>80</v>
@@ -6084,13 +6019,13 @@
         <v>252</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>254</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>316</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>256</v>
@@ -6118,11 +6053,11 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -6172,10 +6107,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6287,14 +6222,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6316,14 +6251,12 @@
         <v>134</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>135</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6393,7 +6326,7 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>80</v>
@@ -6404,18 +6337,20 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6427,29 +6362,25 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6491,19 +6422,19 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6512,21 +6443,21 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6549,18 +6480,20 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6608,7 +6541,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6629,21 +6562,21 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6666,18 +6599,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6725,7 +6658,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6746,21 +6679,21 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6783,17 +6716,17 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6842,7 +6775,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6863,21 +6796,21 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6900,19 +6833,17 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6961,7 +6892,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6982,25 +6913,23 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7009,10 +6938,10 @@
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>80</v>
@@ -7021,19 +6950,19 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7058,11 +6987,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y41" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z41" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7080,13 +7011,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7101,23 +7032,25 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7126,28 +7059,32 @@
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7171,13 +7108,11 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7195,19 +7130,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7216,21 +7151,21 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7241,7 +7176,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7253,13 +7188,13 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>136</v>
+        <v>241</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7298,31 +7233,31 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7331,7 +7266,7 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>80</v>
@@ -7342,14 +7277,12 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7358,7 +7291,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7370,13 +7303,13 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
+        <v>136</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7415,16 +7348,16 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>249</v>
@@ -7459,18 +7392,20 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
@@ -7482,29 +7417,25 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>80</v>
@@ -7546,19 +7477,19 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7567,21 +7498,21 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7604,18 +7535,20 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7663,7 +7596,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7684,21 +7617,21 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7721,18 +7654,18 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7780,7 +7713,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7801,21 +7734,21 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7838,17 +7771,17 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7897,7 +7830,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7918,21 +7851,21 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7955,19 +7888,17 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8016,7 +7947,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8037,25 +7968,23 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8076,19 +8005,19 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>252</v>
+        <v>209</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8113,11 +8042,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8135,13 +8066,13 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
@@ -8156,21 +8087,21 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8190,19 +8121,23 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>239</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8250,7 +8185,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>242</v>
+        <v>340</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8262,7 +8197,7 @@
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>80</v>
@@ -8271,32 +8206,34 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="D52" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8305,19 +8242,19 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>246</v>
+        <v>346</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8355,54 +8292,54 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8416,7 +8353,7 @@
         <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8425,26 +8362,24 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>272</v>
+        <v>349</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>273</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>80</v>
@@ -8486,10 +8421,10 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>347</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>89</v>
@@ -8501,27 +8436,27 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>279</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8535,25 +8470,25 @@
         <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8603,7 +8538,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8618,27 +8553,27 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8649,7 +8584,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8658,21 +8593,19 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>109</v>
+        <v>367</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>292</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8708,25 +8641,23 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>293</v>
+        <v>366</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8735,29 +8666,31 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8775,21 +8708,19 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>375</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>299</v>
+        <v>369</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8837,13 +8768,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -8852,29 +8783,31 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>303</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8892,23 +8825,19 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>209</v>
+        <v>379</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>306</v>
+        <v>380</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8956,13 +8885,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8971,27 +8900,27 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>311</v>
+        <v>372</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>312</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8999,13 +8928,13 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9014,20 +8943,16 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>239</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9075,7 +9000,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9084,49 +9009,47 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>386</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -9135,17 +9058,15 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9194,10 +9115,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>219</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>89</v>
@@ -9209,27 +9130,27 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>228</v>
+        <v>396</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>231</v>
+        <v>397</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9237,32 +9158,30 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9311,10 +9230,10 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>89</v>
@@ -9326,27 +9245,27 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9360,25 +9279,25 @@
         <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K61" t="s" s="2">
-        <v>379</v>
+        <v>173</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9404,13 +9323,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9428,7 +9347,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9443,27 +9362,27 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>385</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9474,7 +9393,7 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9486,13 +9405,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9531,23 +9450,25 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
@@ -9556,16 +9477,16 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9573,14 +9494,12 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9589,10 +9508,10 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -9601,15 +9520,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>396</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9634,13 +9555,11 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9658,7 +9577,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9673,31 +9592,29 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>398</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9706,10 +9623,10 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
@@ -9718,15 +9635,17 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9775,7 +9694,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9790,16 +9709,16 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>392</v>
+        <v>434</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9807,10 +9726,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9818,13 +9737,13 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
@@ -9833,13 +9752,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9890,42 +9809,42 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9933,13 +9852,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
@@ -9948,13 +9867,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>414</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10005,13 +9924,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -10020,16 +9939,16 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10037,10 +9956,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10051,7 +9970,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -10060,16 +9979,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10120,13 +10039,13 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
@@ -10135,16 +10054,16 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10152,10 +10071,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10178,18 +10097,18 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>173</v>
+        <v>452</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10213,13 +10132,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10237,7 +10156,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10252,13 +10171,13 @@
         <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>80</v>
@@ -10269,10 +10188,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10295,15 +10214,17 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>435</v>
+        <v>173</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>460</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10328,13 +10249,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10352,7 +10273,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10373,10 +10294,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10384,10 +10305,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10401,7 +10322,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10410,17 +10331,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>466</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10445,11 +10364,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>444</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10467,7 +10388,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10482,27 +10403,27 @@
         <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10525,17 +10446,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10584,7 +10503,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10599,16 +10518,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>169</v>
+        <v>476</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10616,10 +10535,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10627,30 +10546,32 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>458</v>
+        <v>479</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10699,7 +10620,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10714,13 +10635,13 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>80</v>
@@ -10731,10 +10652,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10745,7 +10666,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10754,16 +10675,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>465</v>
+        <v>487</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10814,13 +10735,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10832,10 +10753,10 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>462</v>
+        <v>489</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>80</v>
@@ -10846,10 +10767,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10860,7 +10781,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10869,16 +10790,16 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>468</v>
+        <v>240</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>469</v>
+        <v>241</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10929,28 +10850,28 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>466</v>
+        <v>242</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>471</v>
+        <v>243</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>80</v>
@@ -10961,21 +10882,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10984,21 +10905,21 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>246</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11046,28 +10967,28 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>472</v>
+        <v>249</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>478</v>
+        <v>243</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>80</v>
@@ -11078,44 +10999,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11139,13 +11062,13 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>484</v>
+        <v>80</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11163,19 +11086,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11184,7 +11107,7 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>80</v>
@@ -11195,10 +11118,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11209,7 +11132,7 @@
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11221,15 +11144,17 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11278,13 +11203,13 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
@@ -11293,13 +11218,13 @@
         <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>80</v>
@@ -11310,10 +11235,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11324,10 +11249,10 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
@@ -11336,13 +11261,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>493</v>
+        <v>239</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
+        <v>240</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>495</v>
+        <v>241</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11393,28 +11318,28 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>242</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>498</v>
+        <v>243</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>80</v>
@@ -11425,24 +11350,24 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>80</v>
@@ -11451,16 +11376,16 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>500</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>246</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
+        <v>247</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>503</v>
+        <v>151</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11510,7 +11435,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11522,7 +11447,7 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11531,7 +11456,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>504</v>
+        <v>243</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>80</v>
@@ -11542,42 +11467,46 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I80" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>506</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>495</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11625,28 +11554,28 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>509</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>510</v>
+        <v>132</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>80</v>
@@ -11657,10 +11586,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11683,13 +11612,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>239</v>
+        <v>506</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>240</v>
+        <v>507</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>241</v>
+        <v>508</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11740,7 +11669,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>242</v>
+        <v>505</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11752,7 +11681,7 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -11761,7 +11690,7 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>243</v>
+        <v>509</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>80</v>
@@ -11772,21 +11701,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -11798,17 +11727,15 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>134</v>
+        <v>511</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>246</v>
+        <v>512</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11857,19 +11784,19 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>249</v>
+        <v>510</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
@@ -11878,7 +11805,7 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>243</v>
+        <v>514</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>80</v>
@@ -11889,46 +11816,42 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>134</v>
+        <v>511</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11976,19 +11899,19 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -11997,7 +11920,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>132</v>
+        <v>514</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>80</v>
@@ -12034,18 +11957,20 @@
         <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>523</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12111,10 +12036,10 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>80</v>
@@ -12125,10 +12050,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12151,15 +12076,17 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>239</v>
+        <v>527</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>240</v>
+        <v>528</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -12208,7 +12135,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>242</v>
+        <v>526</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12220,41 +12147,41 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>243</v>
+        <v>532</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>80</v>
+        <v>533</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12266,17 +12193,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>134</v>
+        <v>506</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12325,78 +12250,76 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>249</v>
+        <v>534</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>537</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>243</v>
+        <v>538</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>134</v>
+        <v>511</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12444,28 +12367,28 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>132</v>
+        <v>545</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>80</v>
@@ -12476,10 +12399,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12502,13 +12425,13 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12559,7 +12482,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12580,10 +12503,10 @@
         <v>80</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12591,10 +12514,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12617,13 +12540,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>532</v>
+        <v>485</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12674,7 +12597,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12692,10 +12615,10 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>80</v>
@@ -12706,10 +12629,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12732,13 +12655,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>532</v>
+        <v>239</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>537</v>
+        <v>240</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>538</v>
+        <v>241</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12789,7 +12712,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>536</v>
+        <v>242</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12801,7 +12724,7 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -12810,7 +12733,7 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>535</v>
+        <v>243</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>80</v>
@@ -12821,24 +12744,24 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
@@ -12847,20 +12770,18 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>540</v>
+        <v>134</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>542</v>
+        <v>247</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12908,28 +12829,28 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>249</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>546</v>
+        <v>243</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>80</v>
@@ -12940,44 +12861,46 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I92" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I92" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>548</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13025,42 +12948,42 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>547</v>
+        <v>496</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>552</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>553</v>
+        <v>132</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13068,13 +12991,13 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13083,15 +13006,17 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>563</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13116,13 +13041,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13140,10 +13065,10 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>89</v>
@@ -13158,24 +13083,24 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13198,17 +13123,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>532</v>
+        <v>173</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13233,13 +13156,11 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13257,7 +13178,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13275,24 +13196,24 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13315,13 +13236,13 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13372,7 +13293,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13387,16 +13308,16 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>579</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13404,24 +13325,24 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>582</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>80</v>
@@ -13430,15 +13351,17 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13487,13 +13410,13 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
@@ -13505,10 +13428,10 @@
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>80</v>
@@ -13519,10 +13442,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13533,7 +13456,7 @@
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13545,15 +13468,17 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>239</v>
+        <v>589</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>240</v>
+        <v>590</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13602,853 +13527,38 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>242</v>
+        <v>588</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>593</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>243</v>
+        <v>594</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y101" s="2"/>
-      <c r="Z101" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO104" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO104">
+  <autoFilter ref="A1:AO97">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14458,7 +13568,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI96">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ARFMedicationRequest.xlsx
+++ b/StructureDefinition-ARFMedicationRequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T17:10:08+10:00</t>
+    <t>2024-10-28T13:52:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
